--- a/Kế Hoạch Đồ Án.xlsx
+++ b/Kế Hoạch Đồ Án.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Horse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Tên Công Việc</t>
   </si>
   <si>
-    <t>Tên Người 1</t>
-  </si>
-  <si>
-    <t>Tên Người 2</t>
-  </si>
-  <si>
     <t>Ngày Bắt Đầu Dự Kiến</t>
   </si>
   <si>
@@ -80,7 +74,13 @@
     <t>Tổng hợp và cài đặt chương trình chính</t>
   </si>
   <si>
-    <t>Kiểm tra và sửa lỗi, hoàn thành đồ án</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Kiểm tra và sửa lỗi, hoàn thành chương trình</t>
+  </si>
+  <si>
+    <t>Hoàn thành bài báo cáo đồ án</t>
   </si>
 </sst>
 </file>
@@ -162,17 +162,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,7 +457,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,231 +470,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43353</v>
+      </c>
+      <c r="F4" s="3">
+        <v>43359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43360</v>
+      </c>
+      <c r="F5" s="3">
+        <v>43366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3">
+        <v>43367</v>
+      </c>
+      <c r="F6" s="3">
+        <v>43368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43369</v>
+      </c>
+      <c r="F7" s="3">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3">
+        <v>43371</v>
+      </c>
+      <c r="F8" s="3">
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43376</v>
+      </c>
+      <c r="F9" s="3">
+        <v>43379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3">
+        <v>43380</v>
+      </c>
+      <c r="F10" s="3">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3">
+        <v>43382</v>
+      </c>
+      <c r="F11" s="3">
+        <v>43387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="E4" s="5">
-        <v>43353</v>
-      </c>
-      <c r="F4" s="5">
-        <v>43359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3">
+        <v>43388</v>
+      </c>
+      <c r="F12" s="3">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5">
-        <v>43360</v>
-      </c>
-      <c r="F5" s="5">
-        <v>43366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5">
-        <v>43367</v>
-      </c>
-      <c r="F6" s="5">
-        <v>43368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3">
+        <v>43393</v>
+      </c>
+      <c r="F13" s="3">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5">
-        <v>43369</v>
-      </c>
-      <c r="F7" s="5">
-        <v>43370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5">
-        <v>43371</v>
-      </c>
-      <c r="F8" s="5">
-        <v>43375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5">
-        <v>43376</v>
-      </c>
-      <c r="F9" s="5">
-        <v>43379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5">
-        <v>43380</v>
-      </c>
-      <c r="F10" s="5">
-        <v>43381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5">
-        <v>43382</v>
-      </c>
-      <c r="F11" s="5">
-        <v>43387</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5">
-        <v>43388</v>
-      </c>
-      <c r="F12" s="5">
-        <v>43392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="5">
-        <v>43393</v>
-      </c>
-      <c r="F13" s="5">
-        <v>43394</v>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3">
+        <v>43395</v>
+      </c>
+      <c r="F14" s="3">
+        <v>43396</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">

--- a/Kế Hoạch Đồ Án.xlsx
+++ b/Kế Hoạch Đồ Án.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/Kế Hoạch Đồ Án.xlsx
+++ b/Kế Hoạch Đồ Án.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Horse\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -82,13 +76,16 @@
   </si>
   <si>
     <t>Hoàn thành bài báo cáo đồ án</t>
+  </si>
+  <si>
+    <t>Ngày Kết Thúc Chính Thức</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -172,9 +169,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -270,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -447,48 +443,51 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -507,8 +506,11 @@
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -527,8 +529,11 @@
       <c r="F4" s="3">
         <v>43359</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="3">
+        <v>43359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -547,8 +552,11 @@
       <c r="F5" s="3">
         <v>43366</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G5" s="3">
+        <v>43366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -565,8 +573,11 @@
       <c r="F6" s="3">
         <v>43368</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G6" s="3">
+        <v>43368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -583,8 +594,11 @@
       <c r="F7" s="3">
         <v>43370</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G7" s="3">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -601,8 +615,11 @@
       <c r="F8" s="3">
         <v>43375</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G8" s="6">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -621,8 +638,11 @@
       <c r="F9" s="3">
         <v>43379</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G9" s="6">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="37.5">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -639,8 +659,11 @@
       <c r="F10" s="3">
         <v>43381</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G10" s="6">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="37.5">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -657,8 +680,9 @@
       <c r="F11" s="3">
         <v>43387</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -677,8 +701,9 @@
       <c r="F12" s="3">
         <v>43392</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="37.5">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -697,8 +722,9 @@
       <c r="F13" s="3">
         <v>43394</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -717,8 +743,9 @@
       <c r="F14" s="3">
         <v>43396</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -728,7 +755,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Kế Hoạch Đồ Án.xlsx
+++ b/Kế Hoạch Đồ Án.xlsx
@@ -166,11 +166,11 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,7 +454,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -468,24 +468,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="A3" s="2" t="s">
@@ -506,7 +506,7 @@
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -615,7 +615,7 @@
       <c r="F8" s="3">
         <v>43375</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>43378</v>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="F9" s="3">
         <v>43379</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>43378</v>
       </c>
     </row>
@@ -659,7 +659,7 @@
       <c r="F10" s="3">
         <v>43381</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>43383</v>
       </c>
     </row>
@@ -680,7 +680,9 @@
       <c r="F11" s="3">
         <v>43387</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5">
+        <v>43391</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="18.75">
       <c r="A12" s="2">
@@ -701,7 +703,9 @@
       <c r="F12" s="3">
         <v>43392</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>43395</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="37.5">
       <c r="A13" s="2">
@@ -722,7 +726,7 @@
       <c r="F13" s="3">
         <v>43394</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="18.75">
       <c r="A14" s="2">
@@ -743,7 +747,7 @@
       <c r="F14" s="3">
         <v>43396</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1"/>

--- a/Kế Hoạch Đồ Án.xlsx
+++ b/Kế Hoạch Đồ Án.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Horse\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -66,26 +71,59 @@
     <t>Sử dụng ngăn xếp để truy xuất lại các nước đi hợp lệ trước</t>
   </si>
   <si>
-    <t>Tổng hợp và cài đặt chương trình chính</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>Kiểm tra và sửa lỗi, hoàn thành chương trình</t>
   </si>
   <si>
-    <t>Hoàn thành bài báo cáo đồ án</t>
-  </si>
-  <si>
     <t>Ngày Kết Thúc Chính Thức</t>
+  </si>
+  <si>
+    <t>Case 1: Xuất ra một nước đi cơ bản cho quân mã</t>
+  </si>
+  <si>
+    <t>Case 2: Xuất ra tất cả các nước đi có thể của quân mã</t>
+  </si>
+  <si>
+    <t>Case 3: Cho người dùng nhập vào và kiểm tra tính đúng đắn của bước đi</t>
+  </si>
+  <si>
+    <t>Tổng hợp và cài đặt giao diện console</t>
+  </si>
+  <si>
+    <t>Thực hiện menu tổng hợp các thao tác</t>
+  </si>
+  <si>
+    <t>14/11/2018</t>
+  </si>
+  <si>
+    <t>13/11/2018</t>
+  </si>
+  <si>
+    <t>22/11/2018</t>
+  </si>
+  <si>
+    <t>30/11/2018</t>
+  </si>
+  <si>
+    <t>28/10/2018</t>
+  </si>
+  <si>
+    <t>18/11/2018</t>
+  </si>
+  <si>
+    <t>25/11/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,12 +141,11 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +164,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -151,25 +194,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,85 +525,86 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="2">
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="3">
         <v>43353</v>
@@ -533,18 +616,18 @@
         <v>43359</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="3">
         <v>43360</v>
@@ -556,17 +639,17 @@
         <v>43366</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="3">
         <v>43367</v>
       </c>
@@ -577,16 +660,16 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E7" s="3">
         <v>43369</v>
@@ -598,39 +681,39 @@
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="3">
         <v>43371</v>
       </c>
       <c r="F8" s="3">
         <v>43375</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>43378</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="3">
         <v>43376</v>
@@ -638,64 +721,64 @@
       <c r="F9" s="3">
         <v>43379</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>43378</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="37.5">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="3">
         <v>43380</v>
       </c>
       <c r="F10" s="3">
         <v>43381</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>43383</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="37.5">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="3">
         <v>43382</v>
       </c>
       <c r="F11" s="3">
         <v>43387</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>43391</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E12" s="3">
         <v>43388</v>
@@ -703,43 +786,41 @@
       <c r="F12" s="3">
         <v>43392</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>43395</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="37.5">
-      <c r="A13" s="2">
+    <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="3">
         <v>43393</v>
       </c>
       <c r="F13" s="3">
         <v>43394</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75">
-      <c r="A14" s="2">
+      <c r="G13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E14" s="3">
         <v>43395</v>
@@ -747,15 +828,76 @@
       <c r="F14" s="3">
         <v>43396</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="G14" s="4">
+        <v>43201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>43111</v>
+      </c>
+      <c r="F15" s="4">
+        <v>43262</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43292</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Kế Hoạch Đồ Án.xlsx
+++ b/Kế Hoạch Đồ Án.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Horse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horse\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DC6786-917F-479B-AC27-456DE6C79384}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>STT</t>
   </si>
@@ -93,35 +94,14 @@
   </si>
   <si>
     <t>Thực hiện menu tổng hợp các thao tác</t>
-  </si>
-  <si>
-    <t>14/11/2018</t>
-  </si>
-  <si>
-    <t>13/11/2018</t>
-  </si>
-  <si>
-    <t>22/11/2018</t>
-  </si>
-  <si>
-    <t>30/11/2018</t>
-  </si>
-  <si>
-    <t>28/10/2018</t>
-  </si>
-  <si>
-    <t>18/11/2018</t>
-  </si>
-  <si>
-    <t>25/11/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -226,32 +206,32 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,371 +512,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="E4:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
         <v>43353</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>43359</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>43359</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
         <v>43360</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>43366</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>43366</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3">
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2">
         <v>43367</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>43368</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>43368</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
         <v>43369</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>43370</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="3">
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2">
         <v>43371</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>43375</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>43378</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
         <v>43376</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>43379</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>43378</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="3">
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2">
         <v>43380</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>43381</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>43383</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+    <row r="11" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="3">
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2">
         <v>43382</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>43387</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>43391</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+    <row r="12" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
         <v>43388</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>43392</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>43395</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+    <row r="13" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="3">
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2">
         <v>43393</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>43394</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="G13" s="3">
+        <v>43401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2">
         <v>43395</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>43396</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>43201</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2">
         <v>43111</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>43262</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="G15" s="3">
+        <v>43422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
         <v>43292</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="F16" s="5">
+        <v>43417</v>
+      </c>
+      <c r="G16" s="5">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>26</v>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43418</v>
+      </c>
+      <c r="F17" s="2">
+        <v>43426</v>
+      </c>
+      <c r="G17" s="5">
+        <v>43434</v>
       </c>
     </row>
   </sheetData>
